--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
